--- a/vtiger-crm-fw-a12/src/test/resources/testScriptData.xlsx
+++ b/vtiger-crm-fw-a12/src/test/resources/testScriptData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{80F12318-4371-41B1-AD22-341D3FF03A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEERTI SHAKYA\git\Vtiger-a12\vtiger-crm-fw-a12\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E96DDA-7962-4CE8-A32F-A32F540A72C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="favfood" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="contact" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Names</t>
   </si>
@@ -124,7 +128,67 @@
     <t>tcs</t>
   </si>
   <si>
-    <t>surname</t>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Gautam</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Thakur</t>
+  </si>
+  <si>
+    <t>Chandel</t>
+  </si>
+  <si>
+    <t>Tiwari</t>
+  </si>
+  <si>
+    <t>Rathod</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Goyal</t>
+  </si>
+  <si>
+    <t>Gandhi</t>
+  </si>
+  <si>
+    <t>Tomar</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>srivastav</t>
+  </si>
+  <si>
+    <t>Shakya</t>
+  </si>
+  <si>
+    <t>Ghalot</t>
   </si>
 </sst>
 </file>
@@ -154,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -202,11 +266,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -214,7 +293,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,62 +681,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D851E1-430F-4DD9-93D5-003F18CBDF21}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -667,17 +749,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76897C0-3AA2-460F-A644-1DA94DB26FA6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
